--- a/samples/cms_user.xlsx
+++ b/samples/cms_user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\projects\VFGR_MS-cms\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\projects\k8scms\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A3A28-3CF2-4F27-A70E-34E9527FD62A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE0B637-1B9B-4A39-BDCC-D91D8D8D6FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>+30 6973530380</t>
-  </si>
-  <si>
     <t>roles</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>cms:log:.*</t>
+  </si>
+  <si>
+    <t>+30 6977777777</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -488,150 +488,150 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
